--- a/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7005</v>
+        <v>7007</v>
       </c>
       <c r="D7" t="n">
         <v>1200</v>
       </c>
       <c r="E7" t="n">
-        <v>289534628</v>
+        <v>289917074</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110813</v>
+        <v>110814</v>
       </c>
       <c r="D14" t="n">
         <v>21135</v>
       </c>
       <c r="E14" t="n">
-        <v>253240930</v>
+        <v>253241833</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23046</v>
+        <v>23047</v>
       </c>
       <c r="D37" t="n">
         <v>4664</v>
       </c>
       <c r="E37" t="n">
-        <v>130177320</v>
+        <v>130182720</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141675</v>
+        <v>141676</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590046797</v>
+        <v>590050995</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11973</v>
+        <v>11974</v>
       </c>
       <c r="D56" t="n">
         <v>1811</v>
       </c>
       <c r="E56" t="n">
-        <v>187783647</v>
+        <v>187807204</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14336</v>
+        <v>14338</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36135035</v>
+        <v>36137488</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D65" t="n">
         <v>408</v>
       </c>
       <c r="E65" t="n">
-        <v>13552560</v>
+        <v>13580554</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15712</v>
+        <v>15717</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24640272</v>
+        <v>24651442</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D74" t="n">
         <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>4158841</v>
+        <v>4168041</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116588</v>
+        <v>116587</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447324024</v>
+        <v>447322464</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17430</v>
+        <v>17431</v>
       </c>
       <c r="D81" t="n">
         <v>3213</v>
       </c>
       <c r="E81" t="n">
-        <v>133552938</v>
+        <v>133553933</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4100,13 +4100,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34347</v>
+        <v>34348</v>
       </c>
       <c r="D90" t="n">
         <v>7312</v>
       </c>
       <c r="E90" t="n">
-        <v>67206451</v>
+        <v>67213232</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151074</v>
+        <v>151073</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>481909865</v>
+        <v>481901596</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>408958</v>
+        <v>408954</v>
       </c>
       <c r="D92" t="n">
-        <v>70904</v>
+        <v>70903</v>
       </c>
       <c r="E92" t="n">
-        <v>1593186167</v>
+        <v>1593050860</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209451</v>
+        <v>209443</v>
       </c>
       <c r="D93" t="n">
         <v>34258</v>
       </c>
       <c r="E93" t="n">
-        <v>1307040698</v>
+        <v>1306950791</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94126</v>
+        <v>94125</v>
       </c>
       <c r="D94" t="n">
         <v>13794</v>
       </c>
       <c r="E94" t="n">
-        <v>915038946</v>
+        <v>914927107</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50696</v>
+        <v>50689</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>929290955</v>
+        <v>928906921</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>2564</v>
       </c>
       <c r="E96" t="n">
-        <v>786967456</v>
+        <v>786973618</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D97" t="n">
         <v>374</v>
       </c>
       <c r="E97" t="n">
-        <v>213924806</v>
+        <v>213846316</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D98" t="n">
         <v>181</v>
       </c>
       <c r="E98" t="n">
-        <v>117220097</v>
+        <v>117420097</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135209</v>
+        <v>135210</v>
       </c>
       <c r="D104" t="n">
-        <v>23285</v>
+        <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272051969</v>
+        <v>272060324</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18325</v>
+        <v>18331</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>41253077</v>
+        <v>41271449</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6382</v>
+        <v>6384</v>
       </c>
       <c r="D107" t="n">
         <v>1894</v>
       </c>
       <c r="E107" t="n">
-        <v>21920331</v>
+        <v>21931803</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="D108" t="n">
         <v>741</v>
       </c>
       <c r="E108" t="n">
-        <v>18436445</v>
+        <v>18460239</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5043,13 +5043,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8799</v>
+        <v>8800</v>
       </c>
       <c r="D113" t="n">
         <v>2144</v>
       </c>
       <c r="E113" t="n">
-        <v>12651047</v>
+        <v>12651124</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9081803</v>
+        <v>9073557</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11681</v>
+        <v>11680</v>
       </c>
       <c r="D115" t="n">
         <v>2248</v>
       </c>
       <c r="E115" t="n">
-        <v>32888840</v>
+        <v>32886288</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20385473</v>
+        <v>20411989</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8483</v>
+        <v>8484</v>
       </c>
       <c r="D122" t="n">
         <v>1493</v>
       </c>
       <c r="E122" t="n">
-        <v>12668769</v>
+        <v>12669069</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>75579</v>
+        <v>75580</v>
       </c>
       <c r="D131" t="n">
         <v>15099</v>
       </c>
       <c r="E131" t="n">
-        <v>307196038</v>
+        <v>307202531</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6068,13 +6068,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
         <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>538013</v>
+        <v>626897</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168964</v>
+        <v>168966</v>
       </c>
       <c r="D142" t="n">
         <v>35054</v>
       </c>
       <c r="E142" t="n">
-        <v>681688196</v>
+        <v>681733793</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7175,13 +7175,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>83802</v>
+        <v>83801</v>
       </c>
       <c r="D165" t="n">
-        <v>17113</v>
+        <v>17112</v>
       </c>
       <c r="E165" t="n">
-        <v>354971515</v>
+        <v>354961515</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>12218</v>
+        <v>12217</v>
       </c>
       <c r="D167" t="n">
         <v>2416</v>
       </c>
       <c r="E167" t="n">
-        <v>105743177</v>
+        <v>105725619</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="D168" t="n">
         <v>1058</v>
       </c>
       <c r="E168" t="n">
-        <v>100553127</v>
+        <v>100524964</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226076</v>
+        <v>226077</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900493955</v>
+        <v>900500557</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14705</v>
+        <v>14706</v>
       </c>
       <c r="D177" t="n">
         <v>2256</v>
       </c>
       <c r="E177" t="n">
-        <v>251071866</v>
+        <v>251083376</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
